--- a/biology/Botanique/Costaceae/Costaceae.xlsx
+++ b/biology/Botanique/Costaceae/Costaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Costacées regroupe des plantes monocotylédones de l'ordre des Zingiberales qui comporte de cent à deux cents espèces réparties en 4 à 7 genres.
 Ce sont des plantes herbacées, pérennes, rhizomateuses, terrestres ou épiphytes des régions tropicales.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Costus dérivé du latin costum et du grec κοστος / kostos, possiblement de kust (en arabe : كُوسْة, kuwsẗ?), censé nommer une plante indienne aux racines aromatiques[1]. Mais attribuer ce nom à une plante précise est difficile. De fait, en 1751, l'encyclopédiste Louis de Jaucourt décrit ainsi l’ambiguïté de ce nom botanique : 
-« Le costus des Grecs, des Latins, des Arabes, est un même nom qu’ils ont donné à différentes racines, &amp; qu’il est impossible de connaitre aujourd’hui. L’homonymie en Botanique, fait un chaos qu’on ne débrouillera jamais. Louis de Jaucourt[2]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Costus dérivé du latin costum et du grec κοστος / kostos, possiblement de kust (en arabe : كُوسْة, kuwsẗ?), censé nommer une plante indienne aux racines aromatiques. Mais attribuer ce nom à une plante précise est difficile. De fait, en 1751, l'encyclopédiste Louis de Jaucourt décrit ainsi l’ambiguïté de ce nom botanique : 
+« Le costus des Grecs, des Latins, des Arabes, est un même nom qu’ils ont donné à différentes racines, &amp; qu’il est impossible de connaitre aujourd’hui. L’homonymie en Botanique, fait un chaos qu’on ne débrouillera jamais. Louis de Jaucourt. »
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[3] et NCBI  (22 avr. 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010) et NCBI  (22 avr. 2010) :
 genre Chamaecostus  C.Specht &amp; D.W.Stev. (2006)
 genre Cheilocostus  C.Specht (2006)
 genre Costus  L. (1753)
@@ -554,7 +570,7 @@
 genre Monocostus  K.Schum. (1904)
 genre Paracostus  C.Specht (2006)
 genre Tapeinochilos  Miq. (1869)
-Selon Angiosperm Phylogeny Website                        (22 avr. 2010)[5] cette famille comporte 110 espèces dans les genres :
+Selon Angiosperm Phylogeny Website                        (22 avr. 2010) cette famille comporte 110 espèces dans les genres :
 genre Cheilocostus C. Specht
 genre Chamaecostus C. Specht et D. W. Stevenson
 genre Costus L.
@@ -562,12 +578,12 @@
 genre Monocostus K. Schumann
 genre Paracostus C. Specht
 genre Tapeinocheilos Miquel
-Selon DELTA Angio           (22 avr. 2010)[6] :
+Selon DELTA Angio           (22 avr. 2010) :
 genre Costus
 genre Dimerocostus
 genre Monocostus
 genre Tapeinocheilos
-Selon ITIS      (22 avr. 2010)[7] :
+Selon ITIS      (22 avr. 2010) :
 genre Costus  L.</t>
         </is>
       </c>
@@ -596,9 +612,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (22 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (22 avr. 2010) :
 genre Chamaecostus
 Chamaecostus curcumoides
 Chamaecostus cuspidatus
